--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200616.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200616.xlsx
@@ -10833,8 +10833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11120,7 +11120,9 @@
         <v>54</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="I3" s="20">
+        <v>3</v>
+      </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
@@ -11128,7 +11130,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -11184,13 +11186,15 @@
         <v>55</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="18"/>
       <c r="P4" s="20">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -11308,13 +11312,15 @@
         <v>57</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="20">
+        <v>19</v>
+      </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="18"/>
       <c r="P6" s="20">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -11432,13 +11438,15 @@
         <v>59</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="20">
+        <v>3</v>
+      </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="18"/>
       <c r="P8" s="20">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
@@ -11804,13 +11812,15 @@
         <v>65</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20">
+        <v>5</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="18"/>
       <c r="P14" s="20">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -13516,9 +13526,7 @@
         <v>92</v>
       </c>
       <c r="H41" s="20"/>
-      <c r="I41" s="20">
-        <v>31</v>
-      </c>
+      <c r="I41" s="20"/>
       <c r="J41" s="18">
         <v>3</v>
       </c>
@@ -13528,7 +13536,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="20">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Q41" s="18">
         <v>60</v>
